--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50034.17765819059</v>
+        <v>9956801.353979919</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50034.17765819059</v>
+        <v>9956801.353979919</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958968602.9755977</v>
+        <v>39310471.86312623</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8029.52177264997</v>
+        <v>881910.4690183036</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15454.6426140482</v>
+        <v>1669021.119226175</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22879.76345544642</v>
+        <v>2456131.769434047</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30588.56556398647</v>
+        <v>3254116.262066162</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38242.7252482841</v>
+        <v>4041226.912274034</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45896.88493258172</v>
+        <v>4828337.562481905</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53551.04461687934</v>
+        <v>5615448.212689774</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61205.20430117696</v>
+        <v>6402558.862897642</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68859.36398547457</v>
+        <v>7189669.513105511</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76513.52366977218</v>
+        <v>7976780.16331338</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84167.6833540698</v>
+        <v>8763890.813521255</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91821.84303836741</v>
+        <v>9551001.463729132</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99476.002722665</v>
+        <v>10338112.11393701</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>107130.1624069626</v>
+        <v>11125222.76414489</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114784.3220912602</v>
+        <v>11912333.41435276</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
@@ -27055,16 +27055,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>350</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>138</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
